--- a/case3/case3_v3.0_PlanB_211223.xlsx
+++ b/case3/case3_v3.0_PlanB_211223.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KP_Hong/Documents/PyPrjt/[lib]Financial_Model-CashFlow4/case3/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A257A05-54EB-D542-8080-E2D2E2861916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="1" r:id="rId1"/>
@@ -18,17 +12,17 @@
     <sheet name="loan" sheetId="3" r:id="rId3"/>
     <sheet name="fnccst" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="128">
   <si>
     <t>OVERVIEW</t>
   </si>
   <si>
-    <t>Written at: 2021.12.23 01:35:09</t>
+    <t>Written at: 2021.12.23 07:32:41</t>
   </si>
   <si>
     <t>case3/case3_v3.0_PlanB_211223.xlsx</t>
@@ -298,6 +292,9 @@
     <t>기말잔액</t>
   </si>
   <si>
+    <t>펀드계좌</t>
+  </si>
+  <si>
     <t>LOAN</t>
   </si>
   <si>
@@ -409,16 +406,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -426,15 +425,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -461,29 +453,21 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -525,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,27 +541,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,24 +575,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -802,14 +750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1003,13 +951,13 @@
         <v>12706.69</v>
       </c>
       <c r="K18" s="2">
-        <v>2302.9899999999998</v>
+        <v>2302.99</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>2302.9899999999998</v>
+        <v>2302.99</v>
       </c>
       <c r="N18" s="2">
         <v>15009.68</v>
@@ -1047,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>10035.219999999999</v>
+        <v>10035.22</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -1059,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>10035.219999999999</v>
+        <v>10035.22</v>
       </c>
       <c r="O19" s="2">
-        <v>10392.802989984701</v>
+        <v>10392.8029899847</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1097,19 +1045,19 @@
         <v>10727.41</v>
       </c>
       <c r="K20" s="2">
-        <v>2213.7399999999998</v>
+        <v>2213.74</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>2213.7399999999998</v>
+        <v>2213.74</v>
       </c>
       <c r="N20" s="2">
         <v>12941.15</v>
       </c>
       <c r="O20" s="2">
-        <v>11109.657658007671</v>
+        <v>11109.65765800767</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1173,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>672.06</v>
+        <v>672.0599999999999</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -1188,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>5483.0400000000009</v>
+        <v>5483.040000000001</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
@@ -1200,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>5483.0400000000009</v>
+        <v>5483.040000000001</v>
       </c>
       <c r="O22" s="2">
-        <v>5678.4160692247606</v>
+        <v>5678.416069224761</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1220,7 +1168,7 @@
         <v>18007.93</v>
       </c>
       <c r="E23" s="2">
-        <v>672.06</v>
+        <v>672.0599999999999</v>
       </c>
       <c r="F23" s="2">
         <v>4477.16</v>
@@ -1238,19 +1186,19 @@
         <v>49458.35</v>
       </c>
       <c r="K23" s="2">
-        <v>4516.7299999999996</v>
+        <v>4516.73</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>4516.7299999999996</v>
+        <v>4516.73</v>
       </c>
       <c r="N23" s="2">
-        <v>53975.080000000009</v>
+        <v>53975.08000000001</v>
       </c>
       <c r="O23" s="2">
-        <v>49427.315256271708</v>
+        <v>49427.31525627171</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1297,7 +1245,7 @@
         <v>2608.84</v>
       </c>
       <c r="O24" s="2">
-        <v>901.99474372829627</v>
+        <v>901.9947437282963</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1388,10 +1336,10 @@
         <v>3587.19</v>
       </c>
       <c r="N26" s="2">
-        <v>4458.1499999999996</v>
+        <v>4458.15</v>
       </c>
       <c r="O26" s="2">
-        <v>901.99474372829627</v>
+        <v>901.9947437282963</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1408,7 +1356,7 @@
         <v>18007.93</v>
       </c>
       <c r="E27" s="2">
-        <v>672.06</v>
+        <v>672.0599999999999</v>
       </c>
       <c r="F27" s="2">
         <v>5348.12</v>
@@ -1554,7 +1502,7 @@
         <v>59.78</v>
       </c>
       <c r="I34" s="2">
-        <v>523.83000000000004</v>
+        <v>523.83</v>
       </c>
       <c r="J34" s="2">
         <v>3843.77</v>
@@ -1569,7 +1517,7 @@
         <v>696.65</v>
       </c>
       <c r="N34" s="2">
-        <v>4540.4199999999992</v>
+        <v>4540.419999999999</v>
       </c>
       <c r="O34" s="2">
         <v>3438.238768514324</v>
@@ -1598,7 +1546,7 @@
         <v>87.44</v>
       </c>
       <c r="H35" s="2">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
@@ -1619,7 +1567,7 @@
         <v>3035.65</v>
       </c>
       <c r="O35" s="2">
-        <v>3143.8187189047112</v>
+        <v>3143.818718904711</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -1645,7 +1593,7 @@
         <v>73.75</v>
       </c>
       <c r="H36" s="2">
-        <v>72.900000000000006</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
@@ -1666,7 +1614,7 @@
         <v>3914.7</v>
       </c>
       <c r="O36" s="2">
-        <v>3360.6698715578359</v>
+        <v>3360.669871557836</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -1692,7 +1640,7 @@
         <v>22.92</v>
       </c>
       <c r="H37" s="2">
-        <v>66.400000000000006</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I37" s="2">
         <v>0</v>
@@ -1713,7 +1661,7 @@
         <v>3178.06</v>
       </c>
       <c r="O37" s="2">
-        <v>3291.3031864023551</v>
+        <v>3291.303186402355</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -1760,7 +1708,7 @@
         <v>1658.62</v>
       </c>
       <c r="O38" s="2">
-        <v>1717.7212799728991</v>
+        <v>1717.721279972899</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -1774,7 +1722,7 @@
         <v>6717.93</v>
       </c>
       <c r="D39" s="2">
-        <v>5447.3899999999994</v>
+        <v>5447.389999999999</v>
       </c>
       <c r="E39" s="2">
         <v>203.3</v>
@@ -1786,10 +1734,10 @@
         <v>411.01</v>
       </c>
       <c r="H39" s="2">
-        <v>303.33999999999997</v>
+        <v>303.34</v>
       </c>
       <c r="I39" s="2">
-        <v>523.83000000000004</v>
+        <v>523.83</v>
       </c>
       <c r="J39" s="2">
         <v>14961.14</v>
@@ -1807,7 +1755,7 @@
         <v>16327.45</v>
       </c>
       <c r="O39" s="2">
-        <v>14951.751825352119</v>
+        <v>14951.75182535212</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -1827,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>263.47000000000003</v>
+        <v>263.47</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
@@ -1839,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>263.47000000000003</v>
+        <v>263.47</v>
       </c>
       <c r="K40" s="2">
         <v>525.71</v>
@@ -1851,10 +1799,10 @@
         <v>525.71</v>
       </c>
       <c r="N40" s="2">
-        <v>789.18000000000006</v>
+        <v>789.1800000000001</v>
       </c>
       <c r="O40" s="2">
-        <v>272.85817464787579</v>
+        <v>272.8581746478758</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -1889,16 +1837,16 @@
         <v>0</v>
       </c>
       <c r="K41" s="2">
-        <v>559.41999999999996</v>
+        <v>559.42</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
       </c>
       <c r="M41" s="2">
-        <v>559.41999999999996</v>
+        <v>559.42</v>
       </c>
       <c r="N41" s="2">
-        <v>559.41999999999996</v>
+        <v>559.42</v>
       </c>
       <c r="O41" s="2">
         <v>0</v>
@@ -1921,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>263.47000000000003</v>
+        <v>263.47</v>
       </c>
       <c r="G42" s="2">
         <v>0</v>
@@ -1933,22 +1881,22 @@
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>263.47000000000003</v>
+        <v>263.47</v>
       </c>
       <c r="K42" s="2">
-        <v>1085.1300000000001</v>
+        <v>1085.13</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <v>1085.1300000000001</v>
+        <v>1085.13</v>
       </c>
       <c r="N42" s="2">
         <v>1348.6</v>
       </c>
       <c r="O42" s="2">
-        <v>272.85817464787579</v>
+        <v>272.8581746478758</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -1962,7 +1910,7 @@
         <v>6717.93</v>
       </c>
       <c r="D43" s="2">
-        <v>5447.3899999999994</v>
+        <v>5447.389999999999</v>
       </c>
       <c r="E43" s="2">
         <v>203.3</v>
@@ -1974,10 +1922,10 @@
         <v>411.01</v>
       </c>
       <c r="H43" s="2">
-        <v>303.33999999999997</v>
+        <v>303.34</v>
       </c>
       <c r="I43" s="2">
-        <v>523.83000000000004</v>
+        <v>523.83</v>
       </c>
       <c r="J43" s="2">
         <v>15224.61</v>
@@ -1999,38 +1947,37 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AW47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BB47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:54">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:54">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:54">
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2082,8 +2029,11 @@
       <c r="AW6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:49">
+      <c r="AY6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54">
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
@@ -2228,8 +2178,20 @@
       <c r="AW7" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:49">
+      <c r="AY7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54">
       <c r="A8" s="3">
         <v>44530</v>
       </c>
@@ -2377,8 +2339,20 @@
       <c r="AW8" s="4">
         <v>416</v>
       </c>
-    </row>
-    <row r="9" spans="1:49">
+      <c r="AY8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>1084</v>
+      </c>
+      <c r="BB8" s="4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54">
       <c r="A9" s="3">
         <v>44561</v>
       </c>
@@ -2526,8 +2500,20 @@
       <c r="AW9" s="4">
         <v>416</v>
       </c>
-    </row>
-    <row r="10" spans="1:49">
+      <c r="AY9" s="4">
+        <v>416</v>
+      </c>
+      <c r="AZ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54">
       <c r="A10" s="3">
         <v>44592</v>
       </c>
@@ -2622,7 +2608,7 @@
         <v>91.5</v>
       </c>
       <c r="AF10" s="2">
-        <v>35.887500000000003</v>
+        <v>35.8875</v>
       </c>
       <c r="AG10" s="2">
         <v>14.5</v>
@@ -2670,13 +2656,25 @@
         <v>0</v>
       </c>
       <c r="AV10" s="4">
-        <v>14513.887500000001</v>
+        <v>14513.8875</v>
       </c>
       <c r="AW10" s="4">
         <v>1402.112499999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:49">
+      <c r="AY10" s="4">
+        <v>416</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>15500</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>14513.8875</v>
+      </c>
+      <c r="BB10" s="4">
+        <v>1402.112499999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54">
       <c r="A11" s="3">
         <v>44620</v>
       </c>
@@ -2824,8 +2822,20 @@
       <c r="AW11" s="4">
         <v>1343.987499999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:49">
+      <c r="AY11" s="4">
+        <v>1402.112499999999</v>
+      </c>
+      <c r="AZ11" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="4">
+        <v>58.125</v>
+      </c>
+      <c r="BB11" s="4">
+        <v>1343.987499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54">
       <c r="A12" s="3">
         <v>44651</v>
       </c>
@@ -2973,8 +2983,20 @@
       <c r="AW12" s="4">
         <v>1285.862499999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:49">
+      <c r="AY12" s="4">
+        <v>1343.987499999999</v>
+      </c>
+      <c r="AZ12" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="4">
+        <v>58.125</v>
+      </c>
+      <c r="BB12" s="4">
+        <v>1285.862499999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54">
       <c r="A13" s="3">
         <v>44681</v>
       </c>
@@ -3084,7 +3106,7 @@
         <v>624</v>
       </c>
       <c r="AK13" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL13" s="2">
         <v>0</v>
@@ -3099,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="2">
         <v>0</v>
@@ -3117,18 +3139,30 @@
         <v>0</v>
       </c>
       <c r="AV13" s="4">
-        <v>25395.13586956522</v>
+        <v>24395.13586956522</v>
       </c>
       <c r="AW13" s="4">
-        <v>15890.72663043478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49">
+        <v>16890.72663043478</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>1285.862499999999</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>40000</v>
+      </c>
+      <c r="BA13" s="4">
+        <v>24395.13586956522</v>
+      </c>
+      <c r="BB13" s="4">
+        <v>16890.72663043478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54">
       <c r="A14" s="3">
         <v>44712</v>
       </c>
       <c r="B14" s="4">
-        <v>15890.72663043478</v>
+        <v>16890.72663043478</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -3206,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC14" s="2">
         <v>23.75</v>
@@ -3233,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL14" s="2">
         <v>0</v>
@@ -3269,15 +3303,27 @@
         <v>2883.677536231884</v>
       </c>
       <c r="AW14" s="4">
-        <v>13007.049094202899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:49">
+        <v>14007.0490942029</v>
+      </c>
+      <c r="AY14" s="4">
+        <v>16890.72663043478</v>
+      </c>
+      <c r="AZ14" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="4">
+        <v>2883.677536231884</v>
+      </c>
+      <c r="BB14" s="4">
+        <v>14007.0490942029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54">
       <c r="A15" s="3">
         <v>44742</v>
       </c>
       <c r="B15" s="4">
-        <v>13007.049094202899</v>
+        <v>14007.0490942029</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -3355,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="AB15" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC15" s="2">
         <v>23.75</v>
@@ -3382,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL15" s="2">
         <v>0</v>
@@ -3418,15 +3464,27 @@
         <v>3133.677536231884</v>
       </c>
       <c r="AW15" s="4">
-        <v>9873.3715579710151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49">
+        <v>10873.37155797102</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>14007.0490942029</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>3133.677536231884</v>
+      </c>
+      <c r="BB15" s="4">
+        <v>10873.37155797102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54">
       <c r="A16" s="3">
         <v>44773</v>
       </c>
       <c r="B16" s="4">
-        <v>9873.3715579710151</v>
+        <v>10873.37155797102</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -3504,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC16" s="2">
         <v>23.75</v>
@@ -3531,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL16" s="2">
         <v>0</v>
@@ -3567,15 +3625,27 @@
         <v>2883.677536231884</v>
       </c>
       <c r="AW16" s="4">
-        <v>6989.6940217391311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:49">
+        <v>7989.694021739131</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>10873.37155797102</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>2883.677536231884</v>
+      </c>
+      <c r="BB16" s="4">
+        <v>7989.694021739131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54">
       <c r="A17" s="3">
         <v>44804</v>
       </c>
       <c r="B17" s="4">
-        <v>6989.6940217391311</v>
+        <v>7989.694021739131</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -3653,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC17" s="2">
         <v>23.75</v>
@@ -3680,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL17" s="2">
         <v>0</v>
@@ -3716,15 +3786,27 @@
         <v>2883.677536231884</v>
       </c>
       <c r="AW17" s="4">
-        <v>4106.0164855072471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:49">
+        <v>5106.016485507247</v>
+      </c>
+      <c r="AY17" s="4">
+        <v>7989.694021739131</v>
+      </c>
+      <c r="AZ17" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="4">
+        <v>2883.677536231884</v>
+      </c>
+      <c r="BB17" s="4">
+        <v>5106.016485507247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54">
       <c r="A18" s="3">
         <v>44834</v>
       </c>
       <c r="B18" s="4">
-        <v>4106.0164855072471</v>
+        <v>5106.016485507247</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -3802,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC18" s="2">
         <v>23.75</v>
@@ -3829,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL18" s="2">
         <v>0</v>
@@ -3865,15 +3947,27 @@
         <v>2883.677536231884</v>
       </c>
       <c r="AW18" s="4">
-        <v>1222.3389492753629</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49">
+        <v>2222.338949275363</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>5106.016485507247</v>
+      </c>
+      <c r="AZ18" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="4">
+        <v>2883.677536231884</v>
+      </c>
+      <c r="BB18" s="4">
+        <v>2222.338949275363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54">
       <c r="A19" s="3">
         <v>44865</v>
       </c>
       <c r="B19" s="4">
-        <v>1222.3389492753629</v>
+        <v>2222.338949275363</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -3882,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -3900,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -3951,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC19" s="2">
         <v>23.75</v>
@@ -3978,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL19" s="2">
         <v>0</v>
@@ -4014,15 +4108,27 @@
         <v>2883.677536231884</v>
       </c>
       <c r="AW19" s="4">
-        <v>38.661413043479122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49">
+        <v>38.66141304347912</v>
+      </c>
+      <c r="AY19" s="4">
+        <v>2222.338949275363</v>
+      </c>
+      <c r="AZ19" s="4">
+        <v>700</v>
+      </c>
+      <c r="BA19" s="4">
+        <v>2883.677536231884</v>
+      </c>
+      <c r="BB19" s="4">
+        <v>38.66141304347912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54">
       <c r="A20" s="3">
         <v>44895</v>
       </c>
       <c r="B20" s="4">
-        <v>38.661413043479122</v>
+        <v>38.66141304347912</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -4097,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="AA20" s="2">
-        <v>5.8083333333333336</v>
+        <v>2.391666666666667</v>
       </c>
       <c r="AB20" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC20" s="2">
-        <v>23.041666666666671</v>
+        <v>23.45833333333334</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
@@ -4127,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL20" s="2">
         <v>0</v>
@@ -4160,18 +4266,30 @@
         <v>0</v>
       </c>
       <c r="AV20" s="4">
-        <v>2888.7775362318839</v>
+        <v>2885.777536231884</v>
       </c>
       <c r="AW20" s="4">
-        <v>49.883876811595201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49">
+        <v>52.88387681159475</v>
+      </c>
+      <c r="AY20" s="4">
+        <v>38.66141304347912</v>
+      </c>
+      <c r="AZ20" s="4">
+        <v>2900</v>
+      </c>
+      <c r="BA20" s="4">
+        <v>2885.777536231884</v>
+      </c>
+      <c r="BB20" s="4">
+        <v>52.88387681159475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54">
       <c r="A21" s="3">
         <v>44926</v>
       </c>
       <c r="B21" s="4">
-        <v>49.883876811595201</v>
+        <v>52.88387681159475</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -4246,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="AA21" s="2">
-        <v>15.71666666666667</v>
+        <v>12.3</v>
       </c>
       <c r="AB21" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC21" s="2">
-        <v>21.833333333333339</v>
+        <v>22.25</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -4276,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL21" s="2">
         <v>0</v>
@@ -4309,18 +4427,30 @@
         <v>0</v>
       </c>
       <c r="AV21" s="4">
-        <v>2897.4775362318842</v>
+        <v>2894.477536231884</v>
       </c>
       <c r="AW21" s="4">
-        <v>52.406340579711006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:49">
+        <v>58.40634057971056</v>
+      </c>
+      <c r="AY21" s="4">
+        <v>52.88387681159475</v>
+      </c>
+      <c r="AZ21" s="4">
+        <v>2900</v>
+      </c>
+      <c r="BA21" s="4">
+        <v>2894.477536231884</v>
+      </c>
+      <c r="BB21" s="4">
+        <v>58.40634057971056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54">
       <c r="A22" s="3">
         <v>44957</v>
       </c>
       <c r="B22" s="4">
-        <v>52.406340579711006</v>
+        <v>58.40634057971056</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -4395,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="AA22" s="2">
-        <v>25.625</v>
+        <v>22.20833333333334</v>
       </c>
       <c r="AB22" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC22" s="2">
-        <v>20.625</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -4425,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL22" s="2">
         <v>0</v>
@@ -4458,18 +4588,30 @@
         <v>0</v>
       </c>
       <c r="AV22" s="4">
-        <v>2906.177536231884</v>
+        <v>2903.177536231884</v>
       </c>
       <c r="AW22" s="4">
-        <v>46.228804347827008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49">
+        <v>55.22880434782655</v>
+      </c>
+      <c r="AY22" s="4">
+        <v>58.40634057971056</v>
+      </c>
+      <c r="AZ22" s="4">
+        <v>2900</v>
+      </c>
+      <c r="BA22" s="4">
+        <v>2903.177536231884</v>
+      </c>
+      <c r="BB22" s="4">
+        <v>55.22880434782655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54">
       <c r="A23" s="3">
         <v>44985</v>
       </c>
       <c r="B23" s="4">
-        <v>46.228804347827008</v>
+        <v>55.22880434782655</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -4544,13 +4686,13 @@
         <v>0</v>
       </c>
       <c r="AA23" s="2">
-        <v>35.533333333333331</v>
+        <v>32.11666666666667</v>
       </c>
       <c r="AB23" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC23" s="2">
-        <v>19.416666666666671</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="AD23" s="2">
         <v>0</v>
@@ -4574,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL23" s="2">
         <v>0</v>
@@ -4607,18 +4749,30 @@
         <v>0</v>
       </c>
       <c r="AV23" s="4">
-        <v>3164.8775362318838</v>
+        <v>3161.877536231884</v>
       </c>
       <c r="AW23" s="4">
-        <v>81.351268115943185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49">
+        <v>93.35126811594228</v>
+      </c>
+      <c r="AY23" s="4">
+        <v>55.22880434782655</v>
+      </c>
+      <c r="AZ23" s="4">
+        <v>3200</v>
+      </c>
+      <c r="BA23" s="4">
+        <v>3161.877536231884</v>
+      </c>
+      <c r="BB23" s="4">
+        <v>93.35126811594228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54">
       <c r="A24" s="3">
         <v>45016</v>
       </c>
       <c r="B24" s="4">
-        <v>81.351268115943185</v>
+        <v>93.35126811594228</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -4693,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="AA24" s="2">
-        <v>46.466666666666669</v>
+        <v>43.05</v>
       </c>
       <c r="AB24" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC24" s="2">
-        <v>18.083333333333339</v>
+        <v>18.5</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -4723,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
@@ -4756,18 +4910,30 @@
         <v>0</v>
       </c>
       <c r="AV24" s="4">
-        <v>2924.4775362318842</v>
+        <v>2921.477536231884</v>
       </c>
       <c r="AW24" s="4">
-        <v>56.873731884058998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49">
+        <v>71.87373188405809</v>
+      </c>
+      <c r="AY24" s="4">
+        <v>93.35126811594228</v>
+      </c>
+      <c r="AZ24" s="4">
+        <v>2900</v>
+      </c>
+      <c r="BA24" s="4">
+        <v>2921.477536231884</v>
+      </c>
+      <c r="BB24" s="4">
+        <v>71.87373188405809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54">
       <c r="A25" s="3">
         <v>45046</v>
       </c>
       <c r="B25" s="4">
-        <v>56.873731884058998</v>
+        <v>71.87373188405809</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -4776,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -4794,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="4">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="L25" s="2">
         <v>0</v>
@@ -4842,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="AA25" s="2">
-        <v>56.375</v>
+        <v>52.95833333333334</v>
       </c>
       <c r="AB25" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC25" s="2">
-        <v>16.875</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="AD25" s="2">
         <v>0</v>
@@ -4872,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL25" s="2">
         <v>0</v>
@@ -4905,18 +5071,30 @@
         <v>0</v>
       </c>
       <c r="AV25" s="4">
-        <v>2963.177536231884</v>
+        <v>2960.177536231884</v>
       </c>
       <c r="AW25" s="4">
-        <v>93.696195652174993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49">
+        <v>11.69619565217408</v>
+      </c>
+      <c r="AY25" s="4">
+        <v>71.87373188405809</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>2900</v>
+      </c>
+      <c r="BA25" s="4">
+        <v>2960.177536231884</v>
+      </c>
+      <c r="BB25" s="4">
+        <v>11.69619565217408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54">
       <c r="A26" s="3">
         <v>45077</v>
       </c>
       <c r="B26" s="4">
-        <v>93.696195652174993</v>
+        <v>11.69619565217408</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -4925,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
@@ -4943,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="4">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -4991,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="AA26" s="2">
-        <v>66.625</v>
+        <v>62.86666666666667</v>
       </c>
       <c r="AB26" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC26" s="2">
-        <v>15.625</v>
+        <v>16.08333333333334</v>
       </c>
       <c r="AD26" s="2">
         <v>0</v>
@@ -5021,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -5054,18 +5232,30 @@
         <v>0</v>
       </c>
       <c r="AV26" s="4">
-        <v>2942.177536231884</v>
+        <v>2938.877536231884</v>
       </c>
       <c r="AW26" s="4">
-        <v>51.518659420290987</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49">
+        <v>72.8186594202898</v>
+      </c>
+      <c r="AY26" s="4">
+        <v>11.69619565217408</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>3000</v>
+      </c>
+      <c r="BA26" s="4">
+        <v>2938.877536231884</v>
+      </c>
+      <c r="BB26" s="4">
+        <v>72.8186594202898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54">
       <c r="A27" s="3">
         <v>45107</v>
       </c>
       <c r="B27" s="4">
-        <v>51.518659420290987</v>
+        <v>72.8186594202898</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -5140,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="AA27" s="2">
-        <v>76.533333333333331</v>
+        <v>73.11666666666667</v>
       </c>
       <c r="AB27" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC27" s="2">
-        <v>14.41666666666667</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="AD27" s="2">
         <v>0</v>
@@ -5170,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL27" s="2">
         <v>0</v>
@@ -5203,18 +5393,30 @@
         <v>0</v>
       </c>
       <c r="AV27" s="4">
-        <v>3200.8775362318838</v>
+        <v>3197.877536231884</v>
       </c>
       <c r="AW27" s="4">
-        <v>50.641123188407157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49">
+        <v>74.94112318840553</v>
+      </c>
+      <c r="AY27" s="4">
+        <v>72.8186594202898</v>
+      </c>
+      <c r="AZ27" s="4">
+        <v>3200</v>
+      </c>
+      <c r="BA27" s="4">
+        <v>3197.877536231884</v>
+      </c>
+      <c r="BB27" s="4">
+        <v>74.94112318840553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54">
       <c r="A28" s="3">
         <v>45138</v>
       </c>
       <c r="B28" s="4">
-        <v>50.641123188407157</v>
+        <v>74.94112318840553</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -5223,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -5241,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
@@ -5289,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="AA28" s="2">
-        <v>87.466666666666669</v>
+        <v>84.05</v>
       </c>
       <c r="AB28" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC28" s="2">
-        <v>13.08333333333333</v>
+        <v>13.5</v>
       </c>
       <c r="AD28" s="2">
         <v>0</v>
@@ -5319,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
@@ -5352,18 +5554,30 @@
         <v>0</v>
       </c>
       <c r="AV28" s="4">
-        <v>2960.4775362318842</v>
+        <v>2957.477536231884</v>
       </c>
       <c r="AW28" s="4">
-        <v>90.163586956522977</v>
-      </c>
-    </row>
-    <row r="29" spans="1:49">
+        <v>17.46358695652134</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>74.94112318840553</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>2900</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>2957.477536231884</v>
+      </c>
+      <c r="BB28" s="4">
+        <v>17.46358695652134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54">
       <c r="A29" s="3">
         <v>45169</v>
       </c>
       <c r="B29" s="4">
-        <v>90.163586956522977</v>
+        <v>17.46358695652134</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -5372,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
@@ -5390,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
@@ -5438,13 +5652,13 @@
         <v>0</v>
       </c>
       <c r="AA29" s="2">
-        <v>97.716666666666669</v>
+        <v>93.95833333333334</v>
       </c>
       <c r="AB29" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC29" s="2">
-        <v>11.83333333333333</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AD29" s="2">
         <v>0</v>
@@ -5468,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL29" s="2">
         <v>0</v>
@@ -5501,18 +5715,30 @@
         <v>0</v>
       </c>
       <c r="AV29" s="4">
-        <v>2969.4775362318842</v>
+        <v>2966.177536231884</v>
       </c>
       <c r="AW29" s="4">
-        <v>20.68605072463879</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49">
+        <v>51.28605072463733</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>17.46358695652134</v>
+      </c>
+      <c r="AZ29" s="4">
+        <v>3000</v>
+      </c>
+      <c r="BA29" s="4">
+        <v>2966.177536231884</v>
+      </c>
+      <c r="BB29" s="4">
+        <v>51.28605072463733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54">
       <c r="A30" s="3">
         <v>45199</v>
       </c>
       <c r="B30" s="4">
-        <v>20.68605072463879</v>
+        <v>51.28605072463733</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -5587,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="AA30" s="2">
-        <v>107.625</v>
+        <v>104.2083333333333</v>
       </c>
       <c r="AB30" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC30" s="2">
-        <v>10.625</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AD30" s="2">
         <v>0</v>
@@ -5617,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL30" s="2">
         <v>0</v>
@@ -5650,18 +5876,30 @@
         <v>0</v>
       </c>
       <c r="AV30" s="4">
-        <v>2978.177536231884</v>
+        <v>2975.177536231884</v>
       </c>
       <c r="AW30" s="4">
-        <v>42.508514492754777</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49">
+        <v>76.10851449275333</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>51.28605072463733</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>3000</v>
+      </c>
+      <c r="BA30" s="4">
+        <v>2975.177536231884</v>
+      </c>
+      <c r="BB30" s="4">
+        <v>76.10851449275333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54">
       <c r="A31" s="3">
         <v>45230</v>
       </c>
       <c r="B31" s="4">
-        <v>42.508514492754777</v>
+        <v>76.10851449275333</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -5670,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="F31" s="2">
         <v>0</v>
@@ -5688,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="4">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -5736,13 +5974,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="2">
-        <v>117.875</v>
+        <v>114.4583333333333</v>
       </c>
       <c r="AB31" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC31" s="2">
-        <v>9.375</v>
+        <v>9.791666666666668</v>
       </c>
       <c r="AD31" s="2">
         <v>0</v>
@@ -5766,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL31" s="2">
         <v>980</v>
@@ -5799,18 +6037,30 @@
         <v>0</v>
       </c>
       <c r="AV31" s="4">
-        <v>3967.177536231884</v>
+        <v>3964.177536231884</v>
       </c>
       <c r="AW31" s="4">
-        <v>75.330978260870779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:49">
+        <v>11.93097826086932</v>
+      </c>
+      <c r="AY31" s="4">
+        <v>76.10851449275333</v>
+      </c>
+      <c r="AZ31" s="4">
+        <v>3900</v>
+      </c>
+      <c r="BA31" s="4">
+        <v>3964.177536231884</v>
+      </c>
+      <c r="BB31" s="4">
+        <v>11.93097826086932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54">
       <c r="A32" s="3">
         <v>45260</v>
       </c>
       <c r="B32" s="4">
-        <v>75.330978260870779</v>
+        <v>11.93097826086932</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -5819,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F32" s="2">
         <v>0</v>
@@ -5837,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="4">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
@@ -5885,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="AA32" s="2">
-        <v>131.54166666666671</v>
+        <v>127.7833333333333</v>
       </c>
       <c r="AB32" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC32" s="2">
-        <v>7.7083333333333339</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -5915,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL32" s="2">
         <v>0</v>
@@ -5948,18 +6198,30 @@
         <v>0</v>
       </c>
       <c r="AV32" s="4">
-        <v>3162.177536231884</v>
+        <v>3158.877536231884</v>
       </c>
       <c r="AW32" s="4">
-        <v>13.15344202898677</v>
-      </c>
-    </row>
-    <row r="33" spans="1:49">
+        <v>53.0534420289855</v>
+      </c>
+      <c r="AY32" s="4">
+        <v>11.93097826086932</v>
+      </c>
+      <c r="AZ32" s="4">
+        <v>3200</v>
+      </c>
+      <c r="BA32" s="4">
+        <v>3158.877536231884</v>
+      </c>
+      <c r="BB32" s="4">
+        <v>53.0534420289855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:54">
       <c r="A33" s="3">
         <v>45291</v>
       </c>
       <c r="B33" s="4">
-        <v>13.15344202898677</v>
+        <v>53.0534420289855</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -6034,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="AA33" s="2">
-        <v>142.1333333333333</v>
+        <v>138.7166666666667</v>
       </c>
       <c r="AB33" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC33" s="2">
-        <v>6.416666666666667</v>
+        <v>6.833333333333334</v>
       </c>
       <c r="AD33" s="2">
         <v>0</v>
@@ -6064,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
@@ -6097,18 +6359,30 @@
         <v>0</v>
       </c>
       <c r="AV33" s="4">
-        <v>3258.4775362318842</v>
+        <v>3255.477536231884</v>
       </c>
       <c r="AW33" s="4">
-        <v>54.675905797103042</v>
-      </c>
-    </row>
-    <row r="34" spans="1:49">
+        <v>97.57590579710131</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>53.0534420289855</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>3300</v>
+      </c>
+      <c r="BA33" s="4">
+        <v>3255.477536231884</v>
+      </c>
+      <c r="BB33" s="4">
+        <v>97.57590579710131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54">
       <c r="A34" s="3">
         <v>45322</v>
       </c>
       <c r="B34" s="4">
-        <v>54.675905797103042</v>
+        <v>97.57590579710131</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -6183,13 +6457,13 @@
         <v>0</v>
       </c>
       <c r="AA34" s="2">
-        <v>153.4083333333333</v>
+        <v>149.9916666666667</v>
       </c>
       <c r="AB34" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC34" s="2">
-        <v>5.041666666666667</v>
+        <v>5.458333333333334</v>
       </c>
       <c r="AD34" s="2">
         <v>0</v>
@@ -6213,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
@@ -6246,18 +6520,30 @@
         <v>0</v>
       </c>
       <c r="AV34" s="4">
-        <v>3018.3775362318838</v>
+        <v>3015.377536231884</v>
       </c>
       <c r="AW34" s="4">
-        <v>36.298369565219218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49">
+        <v>82.19836956521704</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>97.57590579710131</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>3000</v>
+      </c>
+      <c r="BA34" s="4">
+        <v>3015.377536231884</v>
+      </c>
+      <c r="BB34" s="4">
+        <v>82.19836956521704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:54">
       <c r="A35" s="3">
         <v>45351</v>
       </c>
       <c r="B35" s="4">
-        <v>36.298369565219218</v>
+        <v>82.19836956521704</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -6332,13 +6618,13 @@
         <v>0</v>
       </c>
       <c r="AA35" s="2">
-        <v>163.6583333333333</v>
+        <v>160.2416666666667</v>
       </c>
       <c r="AB35" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC35" s="2">
-        <v>3.791666666666667</v>
+        <v>4.208333333333334</v>
       </c>
       <c r="AD35" s="2">
         <v>0</v>
@@ -6362,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <v>21.304347826086961</v>
+        <v>21.30434782608696</v>
       </c>
       <c r="AL35" s="2">
         <v>0</v>
@@ -6395,18 +6681,30 @@
         <v>0</v>
       </c>
       <c r="AV35" s="4">
-        <v>3027.3775362318838</v>
+        <v>3024.377536231884</v>
       </c>
       <c r="AW35" s="4">
-        <v>8.9208333333353949</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49">
+        <v>57.82083333333276</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>82.19836956521704</v>
+      </c>
+      <c r="AZ35" s="4">
+        <v>3000</v>
+      </c>
+      <c r="BA35" s="4">
+        <v>3024.377536231884</v>
+      </c>
+      <c r="BB35" s="4">
+        <v>57.82083333333276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54">
       <c r="A36" s="3">
         <v>45382</v>
       </c>
       <c r="B36" s="4">
-        <v>8.9208333333353949</v>
+        <v>57.82083333333276</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -6481,13 +6779,13 @@
         <v>0</v>
       </c>
       <c r="AA36" s="2">
-        <v>173.9083333333333</v>
+        <v>170.4916666666667</v>
       </c>
       <c r="AB36" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC36" s="2">
-        <v>2.541666666666667</v>
+        <v>2.958333333333333</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -6544,18 +6842,30 @@
         <v>0</v>
       </c>
       <c r="AV36" s="4">
-        <v>473.11666666666667</v>
+        <v>470.1166666666667</v>
       </c>
       <c r="AW36" s="4">
-        <v>35.804166666668657</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49">
+        <v>87.70416666666608</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>57.82083333333276</v>
+      </c>
+      <c r="AZ36" s="4">
+        <v>500</v>
+      </c>
+      <c r="BA36" s="4">
+        <v>470.1166666666667</v>
+      </c>
+      <c r="BB36" s="4">
+        <v>87.70416666666608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54">
       <c r="A37" s="3">
         <v>45412</v>
       </c>
       <c r="B37" s="4">
-        <v>35.804166666668657</v>
+        <v>87.70416666666608</v>
       </c>
       <c r="C37" s="2">
         <v>0</v>
@@ -6630,13 +6940,13 @@
         <v>0</v>
       </c>
       <c r="AA37" s="2">
-        <v>175.6166666666667</v>
+        <v>172.2</v>
       </c>
       <c r="AB37" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC37" s="2">
-        <v>2.333333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="AD37" s="2">
         <v>0</v>
@@ -6693,18 +7003,30 @@
         <v>0</v>
       </c>
       <c r="AV37" s="4">
-        <v>504.61666666666667</v>
+        <v>501.6166666666667</v>
       </c>
       <c r="AW37" s="4">
-        <v>31.187500000001929</v>
-      </c>
-    </row>
-    <row r="38" spans="1:49">
+        <v>86.08749999999941</v>
+      </c>
+      <c r="AY37" s="4">
+        <v>87.70416666666608</v>
+      </c>
+      <c r="AZ37" s="4">
+        <v>500</v>
+      </c>
+      <c r="BA37" s="4">
+        <v>501.6166666666667</v>
+      </c>
+      <c r="BB37" s="4">
+        <v>86.08749999999941</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54">
       <c r="A38" s="3">
         <v>45443</v>
       </c>
       <c r="B38" s="4">
-        <v>31.187500000001929</v>
+        <v>86.08749999999941</v>
       </c>
       <c r="C38" s="2">
         <v>0</v>
@@ -6713,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -6731,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="4">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L38" s="2">
         <v>0</v>
@@ -6779,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="AA38" s="2">
-        <v>177.32499999999999</v>
+        <v>173.9083333333333</v>
       </c>
       <c r="AB38" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC38" s="2">
-        <v>2.125</v>
+        <v>2.541666666666667</v>
       </c>
       <c r="AD38" s="2">
         <v>0</v>
@@ -6842,18 +7164,30 @@
         <v>0</v>
       </c>
       <c r="AV38" s="4">
-        <v>476.11666666666667</v>
+        <v>473.1166666666667</v>
       </c>
       <c r="AW38" s="4">
-        <v>55.070833333335258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:49">
+        <v>12.97083333333268</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>86.08749999999941</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>400</v>
+      </c>
+      <c r="BA38" s="4">
+        <v>473.1166666666667</v>
+      </c>
+      <c r="BB38" s="4">
+        <v>12.97083333333268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54">
       <c r="A39" s="3">
         <v>45473</v>
       </c>
       <c r="B39" s="4">
-        <v>55.070833333335258</v>
+        <v>12.97083333333268</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -6928,13 +7262,13 @@
         <v>0</v>
       </c>
       <c r="AA39" s="2">
-        <v>179.0333333333333</v>
+        <v>175.275</v>
       </c>
       <c r="AB39" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC39" s="2">
-        <v>1.916666666666667</v>
+        <v>2.375</v>
       </c>
       <c r="AD39" s="2">
         <v>0</v>
@@ -6991,18 +7325,30 @@
         <v>0</v>
       </c>
       <c r="AV39" s="4">
-        <v>477.61666666666667</v>
+        <v>474.3166666666667</v>
       </c>
       <c r="AW39" s="4">
-        <v>77.454166666668527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:49">
+        <v>38.6541666666659</v>
+      </c>
+      <c r="AY39" s="4">
+        <v>12.97083333333268</v>
+      </c>
+      <c r="AZ39" s="4">
+        <v>500</v>
+      </c>
+      <c r="BA39" s="4">
+        <v>474.3166666666667</v>
+      </c>
+      <c r="BB39" s="4">
+        <v>38.6541666666659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54">
       <c r="A40" s="3">
         <v>45504</v>
       </c>
       <c r="B40" s="4">
-        <v>77.454166666668527</v>
+        <v>38.6541666666659</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
@@ -7077,13 +7423,13 @@
         <v>0</v>
       </c>
       <c r="AA40" s="2">
-        <v>180.7416666666667</v>
+        <v>176.9833333333333</v>
       </c>
       <c r="AB40" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC40" s="2">
-        <v>1.708333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="AD40" s="2">
         <v>0</v>
@@ -7140,18 +7486,30 @@
         <v>0</v>
       </c>
       <c r="AV40" s="4">
-        <v>3804.1166666666659</v>
+        <v>3800.816666666666</v>
       </c>
       <c r="AW40" s="4">
-        <v>73.337500000002365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:49">
+        <v>37.83750000000009</v>
+      </c>
+      <c r="AY40" s="4">
+        <v>38.6541666666659</v>
+      </c>
+      <c r="AZ40" s="4">
+        <v>3800</v>
+      </c>
+      <c r="BA40" s="4">
+        <v>3800.816666666666</v>
+      </c>
+      <c r="BB40" s="4">
+        <v>37.83750000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54">
       <c r="A41" s="3">
         <v>45535</v>
       </c>
       <c r="B41" s="4">
-        <v>73.337500000002365</v>
+        <v>37.83750000000009</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -7160,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -7172,13 +7530,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>57000</v>
+        <v>56100</v>
       </c>
       <c r="J41" s="2">
         <v>40000</v>
       </c>
       <c r="K41" s="4">
-        <v>28300</v>
+        <v>29400</v>
       </c>
       <c r="L41" s="2">
         <v>0</v>
@@ -7226,13 +7584,13 @@
         <v>0</v>
       </c>
       <c r="AA41" s="2">
-        <v>193.72499999999999</v>
+        <v>189.9666666666667</v>
       </c>
       <c r="AB41" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AC41" s="2">
-        <v>0.125</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -7289,18 +7647,30 @@
         <v>0</v>
       </c>
       <c r="AV41" s="4">
-        <v>490.51666666666671</v>
+        <v>487.2166666666666</v>
       </c>
       <c r="AW41" s="4">
-        <v>27882.820833333339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:49">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AY41" s="4">
+        <v>37.83750000000009</v>
+      </c>
+      <c r="AZ41" s="4">
+        <v>29400</v>
+      </c>
+      <c r="BA41" s="4">
+        <v>487.2166666666666</v>
+      </c>
+      <c r="BB41" s="4">
+        <v>28950.62083333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54">
       <c r="A42" s="3">
         <v>45565</v>
       </c>
       <c r="B42" s="4">
-        <v>27882.820833333339</v>
+        <v>28950.62083333333</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
@@ -7441,15 +7811,27 @@
         <v>0</v>
       </c>
       <c r="AW42" s="4">
-        <v>27882.820833333339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:49">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AY42" s="4">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AZ42" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA42" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB42" s="4">
+        <v>28950.62083333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54">
       <c r="A43" s="3">
         <v>45596</v>
       </c>
       <c r="B43" s="4">
-        <v>27882.820833333339</v>
+        <v>28950.62083333333</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -7590,15 +7972,27 @@
         <v>0</v>
       </c>
       <c r="AW43" s="4">
-        <v>27882.820833333339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:49">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AY43" s="4">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AZ43" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB43" s="4">
+        <v>28950.62083333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54">
       <c r="A44" s="3">
         <v>45626</v>
       </c>
       <c r="B44" s="4">
-        <v>27882.820833333339</v>
+        <v>28950.62083333333</v>
       </c>
       <c r="C44" s="2">
         <v>0</v>
@@ -7739,15 +8133,27 @@
         <v>0</v>
       </c>
       <c r="AW44" s="4">
-        <v>27882.820833333339</v>
-      </c>
-    </row>
-    <row r="45" spans="1:49">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AY44" s="4">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AZ44" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB44" s="4">
+        <v>28950.62083333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54">
       <c r="A45" s="3">
         <v>45657</v>
       </c>
       <c r="B45" s="4">
-        <v>27882.820833333339</v>
+        <v>28950.62083333333</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -7888,15 +8294,27 @@
         <v>0</v>
       </c>
       <c r="AW45" s="4">
-        <v>27882.820833333339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:49">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AY45" s="4">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AZ45" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA45" s="4">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="4">
+        <v>28950.62083333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54">
       <c r="A46" s="3">
         <v>45688</v>
       </c>
       <c r="B46" s="4">
-        <v>27882.820833333339</v>
+        <v>28950.62083333333</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -7995,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="AI46" s="2">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="AJ46" s="2">
         <v>0</v>
@@ -8034,18 +8452,30 @@
         <v>0</v>
       </c>
       <c r="AV46" s="4">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="AW46" s="4">
-        <v>27882.820833333339</v>
-      </c>
-    </row>
-    <row r="47" spans="1:49">
+        <v>22450.62083333333</v>
+      </c>
+      <c r="AY46" s="4">
+        <v>28950.62083333333</v>
+      </c>
+      <c r="AZ46" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA46" s="4">
+        <v>6500</v>
+      </c>
+      <c r="BB46" s="4">
+        <v>22450.62083333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54">
       <c r="A47" s="3">
         <v>45716</v>
       </c>
       <c r="B47" s="4">
-        <v>27882.820833333339</v>
+        <v>22450.62083333333</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -8144,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="2">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="2">
         <v>0</v>
@@ -8180,35 +8610,46 @@
         <v>0</v>
       </c>
       <c r="AU47" s="2">
-        <v>21382.820833333339</v>
+        <v>22450.62083333333</v>
       </c>
       <c r="AV47" s="4">
-        <v>27882.820833333339</v>
+        <v>22450.62083333333</v>
       </c>
       <c r="AW47" s="4">
         <v>0</v>
       </c>
+      <c r="AY47" s="4">
+        <v>22450.62083333333</v>
+      </c>
+      <c r="AZ47" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA47" s="4">
+        <v>22450.62083333333</v>
+      </c>
+      <c r="BB47" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -8237,7 +8678,7 @@
     </row>
     <row r="7" spans="1:44">
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>61</v>
@@ -8246,10 +8687,10 @@
         <v>63</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>61</v>
@@ -8261,10 +8702,10 @@
         <v>65</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>62</v>
@@ -8273,144 +8714,144 @@
         <v>64</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="AR8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -9321,19 +9762,19 @@
         <v>800</v>
       </c>
       <c r="AI15" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ15" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AK15" s="2">
         <v>0</v>
       </c>
       <c r="AL15" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM15" s="2">
-        <v>-38933.333333333343</v>
+        <v>-38933.33333333334</v>
       </c>
       <c r="AN15" s="2">
         <v>0</v>
@@ -9455,19 +9896,19 @@
         <v>800</v>
       </c>
       <c r="AI16" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ16" s="2">
-        <v>533.33333333333337</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="AK16" s="2">
         <v>0</v>
       </c>
       <c r="AL16" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM16" s="2">
-        <v>-38666.666666666657</v>
+        <v>-38666.66666666666</v>
       </c>
       <c r="AN16" s="2">
         <v>0</v>
@@ -9589,7 +10030,7 @@
         <v>800</v>
       </c>
       <c r="AI17" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ17" s="2">
         <v>800</v>
@@ -9598,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM17" s="2">
         <v>-38400</v>
@@ -9723,7 +10164,7 @@
         <v>800</v>
       </c>
       <c r="AI18" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ18" s="2">
         <v>1066.666666666667</v>
@@ -9732,10 +10173,10 @@
         <v>0</v>
       </c>
       <c r="AL18" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM18" s="2">
-        <v>-38133.333333333343</v>
+        <v>-38133.33333333334</v>
       </c>
       <c r="AN18" s="2">
         <v>0</v>
@@ -9857,7 +10298,7 @@
         <v>800</v>
       </c>
       <c r="AI19" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ19" s="2">
         <v>1333.333333333333</v>
@@ -9866,10 +10307,10 @@
         <v>0</v>
       </c>
       <c r="AL19" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM19" s="2">
-        <v>-37866.666666666657</v>
+        <v>-37866.66666666666</v>
       </c>
       <c r="AN19" s="2">
         <v>0</v>
@@ -9934,13 +10375,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <v>-1700</v>
+        <v>-700</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -9961,13 +10402,13 @@
         <v>166.25</v>
       </c>
       <c r="Y20" s="2">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="Z20" s="2">
         <v>23.75</v>
       </c>
       <c r="AA20" s="2">
-        <v>-393.75</v>
+        <v>606.25</v>
       </c>
       <c r="AB20" s="2">
         <v>0</v>
@@ -9991,7 +10432,7 @@
         <v>800</v>
       </c>
       <c r="AI20" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ20" s="2">
         <v>1600</v>
@@ -10000,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AL20" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM20" s="2">
         <v>-37600</v>
@@ -10074,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="2">
-        <v>-4600</v>
+        <v>-3600</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -10083,25 +10524,25 @@
         <v>1140</v>
       </c>
       <c r="U21" s="2">
-        <v>5.8083333333333336</v>
+        <v>2.391666666666667</v>
       </c>
       <c r="V21" s="2">
-        <v>5.8083333333333336</v>
+        <v>2.391666666666667</v>
       </c>
       <c r="W21" s="2">
-        <v>23.041666666666671</v>
+        <v>23.45833333333334</v>
       </c>
       <c r="X21" s="2">
-        <v>189.29166666666671</v>
+        <v>189.7083333333333</v>
       </c>
       <c r="Y21" s="2">
         <v>2900</v>
       </c>
       <c r="Z21" s="2">
-        <v>28.85</v>
+        <v>25.85</v>
       </c>
       <c r="AA21" s="2">
-        <v>-3264.9</v>
+        <v>-2267.9</v>
       </c>
       <c r="AB21" s="2">
         <v>0</v>
@@ -10125,7 +10566,7 @@
         <v>800</v>
       </c>
       <c r="AI21" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ21" s="2">
         <v>1866.666666666667</v>
@@ -10134,10 +10575,10 @@
         <v>0</v>
       </c>
       <c r="AL21" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM21" s="2">
-        <v>-37333.333333333343</v>
+        <v>-37333.33333333334</v>
       </c>
       <c r="AN21" s="2">
         <v>0</v>
@@ -10208,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="2">
-        <v>-7500</v>
+        <v>-6500</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -10217,25 +10658,25 @@
         <v>1140</v>
       </c>
       <c r="U22" s="2">
-        <v>15.71666666666667</v>
+        <v>12.3</v>
       </c>
       <c r="V22" s="2">
-        <v>21.524999999999999</v>
+        <v>14.69166666666667</v>
       </c>
       <c r="W22" s="2">
-        <v>21.833333333333339</v>
+        <v>22.25</v>
       </c>
       <c r="X22" s="2">
-        <v>211.125</v>
+        <v>211.9583333333333</v>
       </c>
       <c r="Y22" s="2">
         <v>2900</v>
       </c>
       <c r="Z22" s="2">
-        <v>37.549999999999997</v>
+        <v>34.55</v>
       </c>
       <c r="AA22" s="2">
-        <v>-6127.35</v>
+        <v>-5133.35</v>
       </c>
       <c r="AB22" s="2">
         <v>0</v>
@@ -10259,7 +10700,7 @@
         <v>800</v>
       </c>
       <c r="AI22" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ22" s="2">
         <v>2133.333333333333</v>
@@ -10268,10 +10709,10 @@
         <v>0</v>
       </c>
       <c r="AL22" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM22" s="2">
-        <v>-37066.666666666657</v>
+        <v>-37066.66666666666</v>
       </c>
       <c r="AN22" s="2">
         <v>0</v>
@@ -10342,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="2">
-        <v>-10400</v>
+        <v>-9400</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -10351,25 +10792,25 @@
         <v>1140</v>
       </c>
       <c r="U23" s="2">
-        <v>25.625</v>
+        <v>22.20833333333334</v>
       </c>
       <c r="V23" s="2">
-        <v>47.15</v>
+        <v>36.90000000000001</v>
       </c>
       <c r="W23" s="2">
-        <v>20.625</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="X23" s="2">
-        <v>231.75</v>
+        <v>233</v>
       </c>
       <c r="Y23" s="2">
         <v>2900</v>
       </c>
       <c r="Z23" s="2">
-        <v>46.25</v>
+        <v>43.25</v>
       </c>
       <c r="AA23" s="2">
-        <v>-8981.1</v>
+        <v>-7990.1</v>
       </c>
       <c r="AB23" s="2">
         <v>0</v>
@@ -10393,7 +10834,7 @@
         <v>800</v>
       </c>
       <c r="AI23" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ23" s="2">
         <v>2400</v>
@@ -10402,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM23" s="2">
         <v>-36800</v>
@@ -10476,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="2">
-        <v>-13600</v>
+        <v>-12600</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -10485,25 +10926,25 @@
         <v>1140</v>
       </c>
       <c r="U24" s="2">
-        <v>35.533333333333331</v>
+        <v>32.11666666666667</v>
       </c>
       <c r="V24" s="2">
-        <v>82.683333333333337</v>
+        <v>69.01666666666668</v>
       </c>
       <c r="W24" s="2">
-        <v>19.416666666666671</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="X24" s="2">
-        <v>251.16666666666671</v>
+        <v>252.8333333333333</v>
       </c>
       <c r="Y24" s="2">
         <v>3200</v>
       </c>
       <c r="Z24" s="2">
-        <v>54.95</v>
+        <v>51.95</v>
       </c>
       <c r="AA24" s="2">
-        <v>-12126.15</v>
+        <v>-11138.15</v>
       </c>
       <c r="AB24" s="2">
         <v>0</v>
@@ -10527,7 +10968,7 @@
         <v>800</v>
       </c>
       <c r="AI24" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ24" s="2">
         <v>2666.666666666667</v>
@@ -10536,10 +10977,10 @@
         <v>0</v>
       </c>
       <c r="AL24" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM24" s="2">
-        <v>-36533.333333333343</v>
+        <v>-36533.33333333334</v>
       </c>
       <c r="AN24" s="2">
         <v>0</v>
@@ -10610,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="2">
-        <v>-16500</v>
+        <v>-15500</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
@@ -10619,25 +11060,25 @@
         <v>1140</v>
       </c>
       <c r="U25" s="2">
-        <v>46.466666666666669</v>
+        <v>43.05</v>
       </c>
       <c r="V25" s="2">
-        <v>129.15</v>
+        <v>112.0666666666667</v>
       </c>
       <c r="W25" s="2">
-        <v>18.083333333333339</v>
+        <v>18.5</v>
       </c>
       <c r="X25" s="2">
-        <v>269.25</v>
+        <v>271.3333333333334</v>
       </c>
       <c r="Y25" s="2">
         <v>2900</v>
       </c>
       <c r="Z25" s="2">
-        <v>64.550000000000011</v>
+        <v>61.55</v>
       </c>
       <c r="AA25" s="2">
-        <v>-14961.6</v>
+        <v>-13976.6</v>
       </c>
       <c r="AB25" s="2">
         <v>0</v>
@@ -10661,7 +11102,7 @@
         <v>800</v>
       </c>
       <c r="AI25" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ25" s="2">
         <v>2933.333333333333</v>
@@ -10670,10 +11111,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM25" s="2">
-        <v>-36266.666666666657</v>
+        <v>-36266.66666666666</v>
       </c>
       <c r="AN25" s="2">
         <v>0</v>
@@ -10738,13 +11179,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <v>-19500</v>
+        <v>-18400</v>
       </c>
       <c r="S26" s="2">
         <v>0</v>
@@ -10753,25 +11194,25 @@
         <v>1140</v>
       </c>
       <c r="U26" s="2">
-        <v>56.375</v>
+        <v>52.95833333333334</v>
       </c>
       <c r="V26" s="2">
-        <v>185.52500000000001</v>
+        <v>165.025</v>
       </c>
       <c r="W26" s="2">
-        <v>16.875</v>
+        <v>17.29166666666667</v>
       </c>
       <c r="X26" s="2">
-        <v>286.125</v>
+        <v>288.6250000000001</v>
       </c>
       <c r="Y26" s="2">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="Z26" s="2">
-        <v>73.25</v>
+        <v>70.25</v>
       </c>
       <c r="AA26" s="2">
-        <v>-17888.349999999999</v>
+        <v>-16806.35</v>
       </c>
       <c r="AB26" s="2">
         <v>0</v>
@@ -10795,7 +11236,7 @@
         <v>800</v>
       </c>
       <c r="AI26" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ26" s="2">
         <v>3200</v>
@@ -10804,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM26" s="2">
         <v>-36000</v>
@@ -10872,13 +11313,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <v>-22400</v>
+        <v>-21400</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
@@ -10887,25 +11328,25 @@
         <v>1140</v>
       </c>
       <c r="U27" s="2">
-        <v>66.625</v>
+        <v>62.86666666666667</v>
       </c>
       <c r="V27" s="2">
-        <v>252.15</v>
+        <v>227.8916666666667</v>
       </c>
       <c r="W27" s="2">
-        <v>15.625</v>
+        <v>16.08333333333334</v>
       </c>
       <c r="X27" s="2">
-        <v>301.75</v>
+        <v>304.7083333333334</v>
       </c>
       <c r="Y27" s="2">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Z27" s="2">
-        <v>82.25</v>
+        <v>78.95</v>
       </c>
       <c r="AA27" s="2">
-        <v>-20706.099999999999</v>
+        <v>-19727.4</v>
       </c>
       <c r="AB27" s="2">
         <v>0</v>
@@ -10929,19 +11370,19 @@
         <v>800</v>
       </c>
       <c r="AI27" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ27" s="2">
-        <v>3466.6666666666661</v>
+        <v>3466.666666666666</v>
       </c>
       <c r="AK27" s="2">
         <v>0</v>
       </c>
       <c r="AL27" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM27" s="2">
-        <v>-35733.333333333343</v>
+        <v>-35733.33333333334</v>
       </c>
       <c r="AN27" s="2">
         <v>0</v>
@@ -11012,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <v>-25600</v>
+        <v>-24600</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -11021,25 +11462,25 @@
         <v>1140</v>
       </c>
       <c r="U28" s="2">
-        <v>76.533333333333331</v>
+        <v>73.11666666666667</v>
       </c>
       <c r="V28" s="2">
-        <v>328.68333333333328</v>
+        <v>301.0083333333334</v>
       </c>
       <c r="W28" s="2">
-        <v>14.41666666666667</v>
+        <v>14.83333333333333</v>
       </c>
       <c r="X28" s="2">
-        <v>316.16666666666669</v>
+        <v>319.5416666666667</v>
       </c>
       <c r="Y28" s="2">
         <v>3200</v>
       </c>
       <c r="Z28" s="2">
-        <v>90.95</v>
+        <v>87.95</v>
       </c>
       <c r="AA28" s="2">
-        <v>-23815.15</v>
+        <v>-22839.45</v>
       </c>
       <c r="AB28" s="2">
         <v>0</v>
@@ -11063,7 +11504,7 @@
         <v>800</v>
       </c>
       <c r="AI28" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ28" s="2">
         <v>3733.333333333333</v>
@@ -11072,10 +11513,10 @@
         <v>0</v>
       </c>
       <c r="AL28" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM28" s="2">
-        <v>-35466.666666666657</v>
+        <v>-35466.66666666666</v>
       </c>
       <c r="AN28" s="2">
         <v>0</v>
@@ -11140,13 +11581,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
       </c>
       <c r="R29" s="2">
-        <v>-28600</v>
+        <v>-27500</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
@@ -11155,25 +11596,25 @@
         <v>1140</v>
       </c>
       <c r="U29" s="2">
-        <v>87.466666666666669</v>
+        <v>84.05</v>
       </c>
       <c r="V29" s="2">
-        <v>416.15</v>
+        <v>385.0583333333334</v>
       </c>
       <c r="W29" s="2">
-        <v>13.08333333333333</v>
+        <v>13.5</v>
       </c>
       <c r="X29" s="2">
-        <v>329.25</v>
+        <v>333.0416666666667</v>
       </c>
       <c r="Y29" s="2">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="Z29" s="2">
-        <v>100.55</v>
+        <v>97.55</v>
       </c>
       <c r="AA29" s="2">
-        <v>-26714.6</v>
+        <v>-25641.9</v>
       </c>
       <c r="AB29" s="2">
         <v>0</v>
@@ -11197,16 +11638,16 @@
         <v>800</v>
       </c>
       <c r="AI29" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ29" s="2">
-        <v>3999.9999999999991</v>
+        <v>3999.999999999999</v>
       </c>
       <c r="AK29" s="2">
         <v>0</v>
       </c>
       <c r="AL29" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM29" s="2">
         <v>-35200</v>
@@ -11274,13 +11715,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <v>-31500</v>
+        <v>-30500</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -11289,25 +11730,25 @@
         <v>1140</v>
       </c>
       <c r="U30" s="2">
-        <v>97.716666666666669</v>
+        <v>93.95833333333334</v>
       </c>
       <c r="V30" s="2">
-        <v>513.86666666666667</v>
+        <v>479.0166666666668</v>
       </c>
       <c r="W30" s="2">
-        <v>11.83333333333333</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="X30" s="2">
-        <v>341.08333333333331</v>
+        <v>345.3333333333334</v>
       </c>
       <c r="Y30" s="2">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="Z30" s="2">
-        <v>109.55</v>
+        <v>106.25</v>
       </c>
       <c r="AA30" s="2">
-        <v>-29505.05</v>
+        <v>-28535.65</v>
       </c>
       <c r="AB30" s="2">
         <v>0</v>
@@ -11331,19 +11772,19 @@
         <v>800</v>
       </c>
       <c r="AI30" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ30" s="2">
-        <v>4266.6666666666661</v>
+        <v>4266.666666666666</v>
       </c>
       <c r="AK30" s="2">
         <v>0</v>
       </c>
       <c r="AL30" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM30" s="2">
-        <v>-34933.333333333343</v>
+        <v>-34933.33333333334</v>
       </c>
       <c r="AN30" s="2">
         <v>0</v>
@@ -11414,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <v>-34500</v>
+        <v>-33500</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -11423,25 +11864,25 @@
         <v>1140</v>
       </c>
       <c r="U31" s="2">
-        <v>107.625</v>
+        <v>104.2083333333333</v>
       </c>
       <c r="V31" s="2">
-        <v>621.49166666666667</v>
+        <v>583.2250000000001</v>
       </c>
       <c r="W31" s="2">
-        <v>10.625</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="X31" s="2">
-        <v>351.70833333333331</v>
+        <v>356.3750000000001</v>
       </c>
       <c r="Y31" s="2">
         <v>3000</v>
       </c>
       <c r="Z31" s="2">
-        <v>118.25</v>
+        <v>115.25</v>
       </c>
       <c r="AA31" s="2">
-        <v>-32386.799999999999</v>
+        <v>-31420.4</v>
       </c>
       <c r="AB31" s="2">
         <v>0</v>
@@ -11465,7 +11906,7 @@
         <v>800</v>
       </c>
       <c r="AI31" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ31" s="2">
         <v>4533.333333333333</v>
@@ -11474,10 +11915,10 @@
         <v>0</v>
       </c>
       <c r="AL31" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM31" s="2">
-        <v>-34666.666666666657</v>
+        <v>-34666.66666666666</v>
       </c>
       <c r="AN31" s="2">
         <v>0</v>
@@ -11542,13 +11983,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <v>-38500</v>
+        <v>-37400</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -11557,25 +11998,25 @@
         <v>1140</v>
       </c>
       <c r="U32" s="2">
-        <v>117.875</v>
+        <v>114.4583333333333</v>
       </c>
       <c r="V32" s="2">
-        <v>739.36666666666667</v>
+        <v>697.6833333333335</v>
       </c>
       <c r="W32" s="2">
-        <v>9.375</v>
+        <v>9.791666666666668</v>
       </c>
       <c r="X32" s="2">
-        <v>361.08333333333331</v>
+        <v>366.1666666666667</v>
       </c>
       <c r="Y32" s="2">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="Z32" s="2">
-        <v>127.25</v>
+        <v>124.25</v>
       </c>
       <c r="AA32" s="2">
-        <v>-36259.550000000003</v>
+        <v>-35196.15</v>
       </c>
       <c r="AB32" s="2">
         <v>0</v>
@@ -11599,7 +12040,7 @@
         <v>800</v>
       </c>
       <c r="AI32" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ32" s="2">
         <v>4800</v>
@@ -11608,7 +12049,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM32" s="2">
         <v>-34400</v>
@@ -11676,13 +12117,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="Q33" s="2">
         <v>0</v>
       </c>
       <c r="R33" s="2">
-        <v>-41600</v>
+        <v>-40600</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
@@ -11691,25 +12132,25 @@
         <v>1140</v>
       </c>
       <c r="U33" s="2">
-        <v>131.54166666666671</v>
+        <v>127.7833333333333</v>
       </c>
       <c r="V33" s="2">
-        <v>870.9083333333333</v>
+        <v>825.4666666666668</v>
       </c>
       <c r="W33" s="2">
-        <v>7.7083333333333339</v>
+        <v>8.166666666666668</v>
       </c>
       <c r="X33" s="2">
-        <v>368.79166666666657</v>
+        <v>374.3333333333334</v>
       </c>
       <c r="Y33" s="2">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="Z33" s="2">
-        <v>139.25</v>
+        <v>135.95</v>
       </c>
       <c r="AA33" s="2">
-        <v>-39220.300000000003</v>
+        <v>-38260.2</v>
       </c>
       <c r="AB33" s="2">
         <v>0</v>
@@ -11733,7 +12174,7 @@
         <v>800</v>
       </c>
       <c r="AI33" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ33" s="2">
         <v>5066.666666666667</v>
@@ -11742,10 +12183,10 @@
         <v>0</v>
       </c>
       <c r="AL33" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM33" s="2">
-        <v>-34133.333333333343</v>
+        <v>-34133.33333333334</v>
       </c>
       <c r="AN33" s="2">
         <v>0</v>
@@ -11816,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <v>-44900</v>
+        <v>-43900</v>
       </c>
       <c r="S34" s="2">
         <v>0</v>
@@ -11825,25 +12266,25 @@
         <v>1140</v>
       </c>
       <c r="U34" s="2">
-        <v>142.1333333333333</v>
+        <v>138.7166666666667</v>
       </c>
       <c r="V34" s="2">
-        <v>1013.041666666667</v>
+        <v>964.1833333333335</v>
       </c>
       <c r="W34" s="2">
-        <v>6.416666666666667</v>
+        <v>6.833333333333334</v>
       </c>
       <c r="X34" s="2">
-        <v>375.20833333333331</v>
+        <v>381.1666666666667</v>
       </c>
       <c r="Y34" s="2">
         <v>3300</v>
       </c>
       <c r="Z34" s="2">
-        <v>148.55000000000001</v>
+        <v>145.55</v>
       </c>
       <c r="AA34" s="2">
-        <v>-42371.75</v>
+        <v>-41414.65</v>
       </c>
       <c r="AB34" s="2">
         <v>0</v>
@@ -11867,19 +12308,19 @@
         <v>800</v>
       </c>
       <c r="AI34" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ34" s="2">
-        <v>5333.3333333333339</v>
+        <v>5333.333333333334</v>
       </c>
       <c r="AK34" s="2">
         <v>0</v>
       </c>
       <c r="AL34" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM34" s="2">
-        <v>-33866.666666666657</v>
+        <v>-33866.66666666666</v>
       </c>
       <c r="AN34" s="2">
         <v>0</v>
@@ -11950,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <v>-47900</v>
+        <v>-46900</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
@@ -11959,25 +12400,25 @@
         <v>1140</v>
       </c>
       <c r="U35" s="2">
-        <v>153.4083333333333</v>
+        <v>149.9916666666667</v>
       </c>
       <c r="V35" s="2">
-        <v>1166.45</v>
+        <v>1114.175</v>
       </c>
       <c r="W35" s="2">
-        <v>5.041666666666667</v>
+        <v>5.458333333333334</v>
       </c>
       <c r="X35" s="2">
-        <v>380.25</v>
+        <v>386.6250000000001</v>
       </c>
       <c r="Y35" s="2">
         <v>3000</v>
       </c>
       <c r="Z35" s="2">
-        <v>158.44999999999999</v>
+        <v>155.45</v>
       </c>
       <c r="AA35" s="2">
-        <v>-45213.3</v>
+        <v>-44259.2</v>
       </c>
       <c r="AB35" s="2">
         <v>0</v>
@@ -12001,16 +12442,16 @@
         <v>800</v>
       </c>
       <c r="AI35" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ35" s="2">
-        <v>5600.0000000000009</v>
+        <v>5600.000000000001</v>
       </c>
       <c r="AK35" s="2">
         <v>0</v>
       </c>
       <c r="AL35" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM35" s="2">
         <v>-33600</v>
@@ -12084,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <v>-50900</v>
+        <v>-49900</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -12093,25 +12534,25 @@
         <v>1140</v>
       </c>
       <c r="U36" s="2">
-        <v>163.6583333333333</v>
+        <v>160.2416666666667</v>
       </c>
       <c r="V36" s="2">
-        <v>1330.1083333333329</v>
+        <v>1274.416666666667</v>
       </c>
       <c r="W36" s="2">
-        <v>3.791666666666667</v>
+        <v>4.208333333333334</v>
       </c>
       <c r="X36" s="2">
-        <v>384.04166666666669</v>
+        <v>390.8333333333334</v>
       </c>
       <c r="Y36" s="2">
         <v>3000</v>
       </c>
       <c r="Z36" s="2">
-        <v>167.45</v>
+        <v>164.45</v>
       </c>
       <c r="AA36" s="2">
-        <v>-48045.850000000013</v>
+        <v>-47094.75</v>
       </c>
       <c r="AB36" s="2">
         <v>0</v>
@@ -12135,19 +12576,19 @@
         <v>800</v>
       </c>
       <c r="AI36" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ36" s="2">
-        <v>5866.6666666666679</v>
+        <v>5866.666666666668</v>
       </c>
       <c r="AK36" s="2">
         <v>0</v>
       </c>
       <c r="AL36" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM36" s="2">
-        <v>-33333.333333333328</v>
+        <v>-33333.33333333333</v>
       </c>
       <c r="AN36" s="2">
         <v>0</v>
@@ -12218,7 +12659,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="2">
-        <v>-51400</v>
+        <v>-50400</v>
       </c>
       <c r="S37" s="2">
         <v>0</v>
@@ -12227,25 +12668,25 @@
         <v>1140</v>
       </c>
       <c r="U37" s="2">
-        <v>173.9083333333333</v>
+        <v>170.4916666666667</v>
       </c>
       <c r="V37" s="2">
-        <v>1504.0166666666671</v>
+        <v>1444.908333333334</v>
       </c>
       <c r="W37" s="2">
-        <v>2.541666666666667</v>
+        <v>2.958333333333333</v>
       </c>
       <c r="X37" s="2">
-        <v>386.58333333333343</v>
+        <v>393.7916666666667</v>
       </c>
       <c r="Y37" s="2">
         <v>500</v>
       </c>
       <c r="Z37" s="2">
-        <v>176.45</v>
+        <v>173.45</v>
       </c>
       <c r="AA37" s="2">
-        <v>-48369.399999999987</v>
+        <v>-47421.3</v>
       </c>
       <c r="AB37" s="2">
         <v>0</v>
@@ -12269,19 +12710,19 @@
         <v>800</v>
       </c>
       <c r="AI37" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ37" s="2">
-        <v>6133.3333333333348</v>
+        <v>6133.333333333335</v>
       </c>
       <c r="AK37" s="2">
         <v>0</v>
       </c>
       <c r="AL37" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM37" s="2">
-        <v>-33066.666666666657</v>
+        <v>-33066.66666666666</v>
       </c>
       <c r="AN37" s="2">
         <v>0</v>
@@ -12352,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="2">
-        <v>-51900</v>
+        <v>-50900</v>
       </c>
       <c r="S38" s="2">
         <v>0</v>
@@ -12361,25 +12802,25 @@
         <v>1140</v>
       </c>
       <c r="U38" s="2">
-        <v>175.6166666666667</v>
+        <v>172.2</v>
       </c>
       <c r="V38" s="2">
-        <v>1679.633333333333</v>
+        <v>1617.108333333334</v>
       </c>
       <c r="W38" s="2">
-        <v>2.333333333333333</v>
+        <v>2.75</v>
       </c>
       <c r="X38" s="2">
-        <v>388.91666666666669</v>
+        <v>396.5416666666667</v>
       </c>
       <c r="Y38" s="2">
         <v>500</v>
       </c>
       <c r="Z38" s="2">
-        <v>177.95</v>
+        <v>174.95</v>
       </c>
       <c r="AA38" s="2">
-        <v>-48691.45</v>
+        <v>-47746.35</v>
       </c>
       <c r="AB38" s="2">
         <v>0</v>
@@ -12403,16 +12844,16 @@
         <v>800</v>
       </c>
       <c r="AI38" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ38" s="2">
-        <v>6400.0000000000018</v>
+        <v>6400.000000000002</v>
       </c>
       <c r="AK38" s="2">
         <v>0</v>
       </c>
       <c r="AL38" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM38" s="2">
         <v>-32800</v>
@@ -12480,13 +12921,13 @@
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q39" s="2">
         <v>0</v>
       </c>
       <c r="R39" s="2">
-        <v>-52400</v>
+        <v>-51300</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
@@ -12495,25 +12936,25 @@
         <v>1140</v>
       </c>
       <c r="U39" s="2">
-        <v>177.32499999999999</v>
+        <v>173.9083333333333</v>
       </c>
       <c r="V39" s="2">
-        <v>1856.958333333333</v>
+        <v>1791.016666666667</v>
       </c>
       <c r="W39" s="2">
-        <v>2.125</v>
+        <v>2.541666666666667</v>
       </c>
       <c r="X39" s="2">
-        <v>391.04166666666669</v>
+        <v>399.0833333333334</v>
       </c>
       <c r="Y39" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z39" s="2">
-        <v>179.45</v>
+        <v>176.45</v>
       </c>
       <c r="AA39" s="2">
-        <v>-49012</v>
+        <v>-47969.89999999999</v>
       </c>
       <c r="AB39" s="2">
         <v>0</v>
@@ -12537,19 +12978,19 @@
         <v>800</v>
       </c>
       <c r="AI39" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ39" s="2">
-        <v>6666.6666666666688</v>
+        <v>6666.666666666669</v>
       </c>
       <c r="AK39" s="2">
         <v>0</v>
       </c>
       <c r="AL39" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM39" s="2">
-        <v>-32533.333333333328</v>
+        <v>-32533.33333333333</v>
       </c>
       <c r="AN39" s="2">
         <v>0</v>
@@ -12620,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="2">
-        <v>-52900</v>
+        <v>-51800</v>
       </c>
       <c r="S40" s="2">
         <v>0</v>
@@ -12629,25 +13070,25 @@
         <v>1140</v>
       </c>
       <c r="U40" s="2">
-        <v>179.0333333333333</v>
+        <v>175.275</v>
       </c>
       <c r="V40" s="2">
-        <v>2035.991666666667</v>
+        <v>1966.291666666667</v>
       </c>
       <c r="W40" s="2">
-        <v>1.916666666666667</v>
+        <v>2.375</v>
       </c>
       <c r="X40" s="2">
-        <v>392.95833333333343</v>
+        <v>401.4583333333334</v>
       </c>
       <c r="Y40" s="2">
         <v>500</v>
       </c>
       <c r="Z40" s="2">
-        <v>180.95</v>
+        <v>177.65</v>
       </c>
       <c r="AA40" s="2">
-        <v>-49331.05</v>
+        <v>-48292.25</v>
       </c>
       <c r="AB40" s="2">
         <v>0</v>
@@ -12671,19 +13112,19 @@
         <v>800</v>
       </c>
       <c r="AI40" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ40" s="2">
-        <v>6933.3333333333358</v>
+        <v>6933.333333333336</v>
       </c>
       <c r="AK40" s="2">
         <v>0</v>
       </c>
       <c r="AL40" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM40" s="2">
-        <v>-32266.666666666661</v>
+        <v>-32266.66666666666</v>
       </c>
       <c r="AN40" s="2">
         <v>0</v>
@@ -12754,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <v>-56700</v>
+        <v>-55600</v>
       </c>
       <c r="S41" s="2">
         <v>0</v>
@@ -12763,25 +13204,25 @@
         <v>1140</v>
       </c>
       <c r="U41" s="2">
-        <v>180.7416666666667</v>
+        <v>176.9833333333333</v>
       </c>
       <c r="V41" s="2">
-        <v>2216.7333333333331</v>
+        <v>2143.275000000001</v>
       </c>
       <c r="W41" s="2">
-        <v>1.708333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="X41" s="2">
-        <v>394.66666666666669</v>
+        <v>403.6250000000001</v>
       </c>
       <c r="Y41" s="2">
         <v>3800</v>
       </c>
       <c r="Z41" s="2">
-        <v>182.45</v>
+        <v>179.15</v>
       </c>
       <c r="AA41" s="2">
-        <v>-52948.600000000013</v>
+        <v>-51913.1</v>
       </c>
       <c r="AB41" s="2">
         <v>0</v>
@@ -12805,16 +13246,16 @@
         <v>800</v>
       </c>
       <c r="AI41" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ41" s="2">
-        <v>7200.0000000000027</v>
+        <v>7200.000000000003</v>
       </c>
       <c r="AK41" s="2">
         <v>0</v>
       </c>
       <c r="AL41" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AM41" s="2">
         <v>-32000</v>
@@ -12882,10 +13323,10 @@
         <v>57000</v>
       </c>
       <c r="P42" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q42" s="2">
-        <v>57000</v>
+        <v>56100</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -12897,25 +13338,25 @@
         <v>1140</v>
       </c>
       <c r="U42" s="2">
-        <v>193.72499999999999</v>
+        <v>189.9666666666667</v>
       </c>
       <c r="V42" s="2">
-        <v>2410.458333333333</v>
+        <v>2333.241666666667</v>
       </c>
       <c r="W42" s="2">
-        <v>0.125</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="X42" s="2">
-        <v>394.79166666666669</v>
+        <v>404.2083333333334</v>
       </c>
       <c r="Y42" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Z42" s="2">
-        <v>57193.85</v>
+        <v>56290.55</v>
       </c>
       <c r="AA42" s="2">
-        <v>3945.25</v>
+        <v>3877.450000000001</v>
       </c>
       <c r="AB42" s="2">
         <v>0</v>
@@ -12939,19 +13380,19 @@
         <v>800</v>
       </c>
       <c r="AI42" s="2">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="AJ42" s="2">
-        <v>7466.6666666666697</v>
+        <v>7466.66666666667</v>
       </c>
       <c r="AK42" s="2">
         <v>0</v>
       </c>
       <c r="AL42" s="2">
-        <v>40266.666666666657</v>
+        <v>40266.66666666666</v>
       </c>
       <c r="AM42" s="2">
-        <v>8266.6666666666697</v>
+        <v>8266.66666666667</v>
       </c>
       <c r="AN42" s="2">
         <v>0</v>
@@ -13034,13 +13475,13 @@
         <v>0</v>
       </c>
       <c r="V43" s="2">
-        <v>2410.458333333333</v>
+        <v>2333.241666666667</v>
       </c>
       <c r="W43" s="2">
         <v>0</v>
       </c>
       <c r="X43" s="2">
-        <v>394.79166666666669</v>
+        <v>404.2083333333334</v>
       </c>
       <c r="Y43" s="2">
         <v>0</v>
@@ -13049,7 +13490,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="2">
-        <v>3945.25</v>
+        <v>3877.450000000001</v>
       </c>
       <c r="AB43" s="2">
         <v>0</v>
@@ -13076,7 +13517,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="2">
-        <v>7466.6666666666697</v>
+        <v>7466.66666666667</v>
       </c>
       <c r="AK43" s="2">
         <v>0</v>
@@ -13085,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="AM43" s="2">
-        <v>8266.6666666666697</v>
+        <v>8266.66666666667</v>
       </c>
       <c r="AN43" s="2">
         <v>0</v>
@@ -13168,13 +13609,13 @@
         <v>0</v>
       </c>
       <c r="V44" s="2">
-        <v>2410.458333333333</v>
+        <v>2333.241666666667</v>
       </c>
       <c r="W44" s="2">
         <v>0</v>
       </c>
       <c r="X44" s="2">
-        <v>394.79166666666669</v>
+        <v>404.2083333333334</v>
       </c>
       <c r="Y44" s="2">
         <v>0</v>
@@ -13183,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="2">
-        <v>3945.25</v>
+        <v>3877.450000000001</v>
       </c>
       <c r="AB44" s="2">
         <v>0</v>
@@ -13210,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="2">
-        <v>7466.6666666666697</v>
+        <v>7466.66666666667</v>
       </c>
       <c r="AK44" s="2">
         <v>0</v>
@@ -13219,7 +13660,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="2">
-        <v>8266.6666666666697</v>
+        <v>8266.66666666667</v>
       </c>
       <c r="AN44" s="2">
         <v>0</v>
@@ -13302,13 +13743,13 @@
         <v>0</v>
       </c>
       <c r="V45" s="2">
-        <v>2410.458333333333</v>
+        <v>2333.241666666667</v>
       </c>
       <c r="W45" s="2">
         <v>0</v>
       </c>
       <c r="X45" s="2">
-        <v>394.79166666666669</v>
+        <v>404.2083333333334</v>
       </c>
       <c r="Y45" s="2">
         <v>0</v>
@@ -13317,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="2">
-        <v>3945.25</v>
+        <v>3877.450000000001</v>
       </c>
       <c r="AB45" s="2">
         <v>0</v>
@@ -13344,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="2">
-        <v>7466.6666666666697</v>
+        <v>7466.66666666667</v>
       </c>
       <c r="AK45" s="2">
         <v>0</v>
@@ -13353,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="AM45" s="2">
-        <v>8266.6666666666697</v>
+        <v>8266.66666666667</v>
       </c>
       <c r="AN45" s="2">
         <v>0</v>
@@ -13436,13 +13877,13 @@
         <v>0</v>
       </c>
       <c r="V46" s="2">
-        <v>2410.458333333333</v>
+        <v>2333.241666666667</v>
       </c>
       <c r="W46" s="2">
         <v>0</v>
       </c>
       <c r="X46" s="2">
-        <v>394.79166666666669</v>
+        <v>404.2083333333334</v>
       </c>
       <c r="Y46" s="2">
         <v>0</v>
@@ -13451,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="2">
-        <v>3945.25</v>
+        <v>3877.450000000001</v>
       </c>
       <c r="AB46" s="2">
         <v>0</v>
@@ -13478,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="2">
-        <v>7466.6666666666697</v>
+        <v>7466.66666666667</v>
       </c>
       <c r="AK46" s="2">
         <v>0</v>
@@ -13487,7 +13928,7 @@
         <v>0</v>
       </c>
       <c r="AM46" s="2">
-        <v>8266.6666666666697</v>
+        <v>8266.66666666667</v>
       </c>
       <c r="AN46" s="2">
         <v>0</v>
@@ -13570,13 +14011,13 @@
         <v>0</v>
       </c>
       <c r="V47" s="2">
-        <v>2410.458333333333</v>
+        <v>2333.241666666667</v>
       </c>
       <c r="W47" s="2">
         <v>0</v>
       </c>
       <c r="X47" s="2">
-        <v>394.79166666666669</v>
+        <v>404.2083333333334</v>
       </c>
       <c r="Y47" s="2">
         <v>0</v>
@@ -13585,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="2">
-        <v>3945.25</v>
+        <v>3877.450000000001</v>
       </c>
       <c r="AB47" s="2">
         <v>0</v>
@@ -13612,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="2">
-        <v>7466.6666666666697</v>
+        <v>7466.66666666667</v>
       </c>
       <c r="AK47" s="2">
         <v>0</v>
@@ -13621,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="2">
-        <v>8266.6666666666697</v>
+        <v>8266.66666666667</v>
       </c>
       <c r="AN47" s="2">
         <v>0</v>
@@ -13704,13 +14145,13 @@
         <v>0</v>
       </c>
       <c r="V48" s="2">
-        <v>2410.458333333333</v>
+        <v>2333.241666666667</v>
       </c>
       <c r="W48" s="2">
         <v>0</v>
       </c>
       <c r="X48" s="2">
-        <v>394.79166666666669</v>
+        <v>404.2083333333334</v>
       </c>
       <c r="Y48" s="2">
         <v>0</v>
@@ -13719,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="2">
-        <v>3945.25</v>
+        <v>3877.450000000001</v>
       </c>
       <c r="AB48" s="2">
         <v>0</v>
@@ -13746,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="2">
-        <v>7466.6666666666697</v>
+        <v>7466.66666666667</v>
       </c>
       <c r="AK48" s="2">
         <v>0</v>
@@ -13755,16 +14196,16 @@
         <v>0</v>
       </c>
       <c r="AM48" s="2">
-        <v>8266.6666666666697</v>
+        <v>8266.66666666667</v>
       </c>
       <c r="AN48" s="2">
         <v>0</v>
       </c>
       <c r="AO48" s="2">
-        <v>21382.820833333339</v>
+        <v>22450.62083333333</v>
       </c>
       <c r="AP48" s="2">
-        <v>19882.820833333339</v>
+        <v>20950.62083333333</v>
       </c>
       <c r="AQ48" s="2">
         <v>0</v>
@@ -13774,25 +14215,24 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -13807,45 +14247,45 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2">
         <v>15500</v>
@@ -13857,13 +14297,13 @@
         <v>15500</v>
       </c>
       <c r="F8" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="G8" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="H8" s="5">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
@@ -13877,10 +14317,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -13892,16 +14332,16 @@
         <v>57000</v>
       </c>
       <c r="F9" s="5">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="G9" s="5">
         <v>0.02</v>
       </c>
       <c r="H9" s="5">
-        <v>4.9275862068965517E-2</v>
+        <v>0.04927586206896552</v>
       </c>
       <c r="I9" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="K9" s="2">
         <v>2337</v>
@@ -13912,7 +14352,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2">
         <v>40000</v>
@@ -13930,7 +14370,7 @@
         <v>0.02</v>
       </c>
       <c r="H10" s="5">
-        <v>8.8275862068965524E-2</v>
+        <v>0.08827586206896552</v>
       </c>
       <c r="I10" s="5">
         <v>0</v>
@@ -13944,7 +14384,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4">
         <v>40000</v>
@@ -13959,7 +14399,7 @@
         <v>0.02</v>
       </c>
       <c r="H11" s="5">
-        <v>7.3634198364735157E-2</v>
+        <v>0.07363419836473516</v>
       </c>
       <c r="K11" s="4">
         <v>5537</v>
@@ -13984,7 +14424,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="4">
         <v>41500</v>
@@ -13998,21 +14438,21 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -14057,7 +14497,7 @@
         <v>69</v>
       </c>
       <c r="C21" s="2">
-        <v>35.887500000000003</v>
+        <v>35.8875</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -14108,7 +14548,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="4">
-        <v>15347.887500000001</v>
+        <v>15347.8875</v>
       </c>
       <c r="D24" s="4">
         <v>1039</v>
@@ -14134,7 +14574,7 @@
         <v>35</v>
       </c>
       <c r="E25" s="2">
-        <v>58464.999999999993</v>
+        <v>58464.99999999999</v>
       </c>
       <c r="F25" s="2">
         <v>6500</v>
@@ -14151,7 +14591,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="4">
-        <v>58464.999999999993</v>
+        <v>58464.99999999999</v>
       </c>
       <c r="F26" s="4">
         <v>6500</v>
@@ -14188,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>489.99999999999989</v>
+        <v>489.9999999999999</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -14287,13 +14727,13 @@
         <v>82</v>
       </c>
       <c r="C34" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -14304,13 +14744,13 @@
         <v>19</v>
       </c>
       <c r="C35" s="4">
-        <v>2615</v>
+        <v>1615</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>2615</v>
+        <v>1615</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -14588,13 +15028,13 @@
         <v>63</v>
       </c>
       <c r="C51" s="2">
-        <v>2410.458333333333</v>
+        <v>2333.241666666667</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
       </c>
       <c r="E51" s="2">
-        <v>2410.458333333333</v>
+        <v>2333.241666666667</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -14605,13 +15045,13 @@
         <v>64</v>
       </c>
       <c r="C52" s="2">
-        <v>7466.6666666666697</v>
+        <v>7466.66666666667</v>
       </c>
       <c r="D52" s="2">
         <v>0</v>
       </c>
       <c r="E52" s="2">
-        <v>7466.6666666666697</v>
+        <v>7466.66666666667</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -14622,13 +15062,13 @@
         <v>65</v>
       </c>
       <c r="C53" s="2">
-        <v>394.79166666666669</v>
+        <v>404.2083333333334</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
       </c>
       <c r="E53" s="2">
-        <v>394.79166666666669</v>
+        <v>404.2083333333334</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -14639,13 +15079,13 @@
         <v>19</v>
       </c>
       <c r="C54" s="4">
-        <v>12211.91666666667</v>
+        <v>12144.11666666667</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <v>12211.91666666667</v>
+        <v>12144.11666666667</v>
       </c>
       <c r="F54" s="4">
         <v>0</v>
@@ -14653,7 +15093,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>45</v>
@@ -14812,23 +15252,22 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C64" s="4">
-        <v>105117.1791666667</v>
+        <v>104049.3791666667</v>
       </c>
       <c r="D64" s="4">
         <v>1084</v>
       </c>
       <c r="E64" s="4">
-        <v>82903.041666666657</v>
+        <v>81835.24166666665</v>
       </c>
       <c r="F64" s="4">
         <v>6500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>